--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H2">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.588395333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N2">
-        <v>19.765186</v>
+        <v>19.375401</v>
       </c>
       <c r="O2">
-        <v>0.6088932199877385</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P2">
-        <v>0.6088932199877384</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q2">
-        <v>49.31180018965667</v>
+        <v>45.871093947358</v>
       </c>
       <c r="R2">
-        <v>443.80620170691</v>
+        <v>412.839845526222</v>
       </c>
       <c r="S2">
-        <v>0.23341031732312</v>
+        <v>0.2631821172304013</v>
       </c>
       <c r="T2">
-        <v>0.23341031732312</v>
+        <v>0.2631821172304013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H3">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.350066</v>
       </c>
       <c r="O3">
-        <v>0.2264286991208885</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P3">
-        <v>0.2264286991208884</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q3">
-        <v>18.33754491219</v>
+        <v>17.401217554428</v>
       </c>
       <c r="R3">
-        <v>165.03790420971</v>
+        <v>156.610957989852</v>
       </c>
       <c r="S3">
-        <v>0.08679813270696646</v>
+        <v>0.09983823982085259</v>
       </c>
       <c r="T3">
-        <v>0.08679813270696644</v>
+        <v>0.09983823982085256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H4">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I4">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J4">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02679433333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N4">
-        <v>0.08038300000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O4">
-        <v>0.002476306759889555</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P4">
-        <v>0.002476306759889555</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q4">
-        <v>0.2005460730116667</v>
+        <v>0.1903060558473333</v>
       </c>
       <c r="R4">
-        <v>1.804914657105</v>
+        <v>1.712754502626</v>
       </c>
       <c r="S4">
-        <v>0.0009492560068690655</v>
+        <v>0.001091867369833086</v>
       </c>
       <c r="T4">
-        <v>0.0009492560068690655</v>
+        <v>0.001091867369833086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H5">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I5">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J5">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.706050333333333</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N5">
-        <v>5.118151</v>
+        <v>1.411378</v>
       </c>
       <c r="O5">
-        <v>0.157671546464246</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P5">
-        <v>0.1576715464642459</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q5">
-        <v>12.76918109713167</v>
+        <v>3.341425183057333</v>
       </c>
       <c r="R5">
-        <v>114.922629874185</v>
+        <v>30.072826647516</v>
       </c>
       <c r="S5">
-        <v>0.06044108307494016</v>
+        <v>0.01917118774741278</v>
       </c>
       <c r="T5">
-        <v>0.06044108307494014</v>
+        <v>0.01917118774741278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H6">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I6">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J6">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,37 +815,37 @@
         <v>0.139771</v>
       </c>
       <c r="O6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q6">
-        <v>0.3487121054316667</v>
+        <v>0.3309066311513333</v>
       </c>
       <c r="R6">
-        <v>3.138408948885</v>
+        <v>2.978159680362</v>
       </c>
       <c r="S6">
-        <v>0.001650578621550529</v>
+        <v>0.001898553103876943</v>
       </c>
       <c r="T6">
-        <v>0.001650578621550529</v>
+        <v>0.001898553103876943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.484645</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H7">
-        <v>22.453935</v>
+        <v>24.89943</v>
       </c>
       <c r="I7">
-        <v>0.3833353856819432</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J7">
-        <v>0.3833353856819432</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.002428</v>
+        <v>6.458467</v>
       </c>
       <c r="N7">
-        <v>0.007284000000000001</v>
+        <v>19.375401</v>
       </c>
       <c r="O7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q7">
-        <v>0.01817271806</v>
+        <v>53.60404899127001</v>
       </c>
       <c r="R7">
-        <v>0.16355446254</v>
+        <v>482.4364409214301</v>
       </c>
       <c r="S7">
-        <v>8.601794849699903E-05</v>
+        <v>0.3075493931283743</v>
       </c>
       <c r="T7">
-        <v>8.601794849699901E-05</v>
+        <v>0.3075493931283743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H8">
         <v>24.89943</v>
       </c>
       <c r="I8">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J8">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.588395333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N8">
-        <v>19.765186</v>
+        <v>7.350066</v>
       </c>
       <c r="O8">
-        <v>0.6088932199877385</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P8">
-        <v>0.6088932199877384</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q8">
-        <v>54.68242947155333</v>
+        <v>20.33471709582</v>
       </c>
       <c r="R8">
-        <v>492.14186524398</v>
+        <v>183.01245386238</v>
       </c>
       <c r="S8">
-        <v>0.2588314189679811</v>
+        <v>0.116668983405995</v>
       </c>
       <c r="T8">
-        <v>0.258831418967981</v>
+        <v>0.1166689834059949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H9">
         <v>24.89943</v>
       </c>
       <c r="I9">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J9">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.450022</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N9">
-        <v>7.350066</v>
+        <v>0.080383</v>
       </c>
       <c r="O9">
-        <v>0.2264286991208885</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P9">
-        <v>0.2264286991208884</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q9">
-        <v>20.33471709582</v>
+        <v>0.2223878757433334</v>
       </c>
       <c r="R9">
-        <v>183.01245386238</v>
+        <v>2.00149088169</v>
       </c>
       <c r="S9">
-        <v>0.09625146013239201</v>
+        <v>0.001275934514482468</v>
       </c>
       <c r="T9">
-        <v>0.096251460132392</v>
+        <v>0.001275934514482467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H10">
         <v>24.89943</v>
       </c>
       <c r="I10">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J10">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02679433333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N10">
-        <v>0.08038300000000001</v>
+        <v>1.411378</v>
       </c>
       <c r="O10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q10">
-        <v>0.2223878757433333</v>
+        <v>3.904723079393334</v>
       </c>
       <c r="R10">
-        <v>2.00149088169</v>
+        <v>35.14250771454</v>
       </c>
       <c r="S10">
-        <v>0.001052641040205907</v>
+        <v>0.02240306909646612</v>
       </c>
       <c r="T10">
-        <v>0.001052641040205907</v>
+        <v>0.02240306909646612</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H11">
         <v>24.89943</v>
       </c>
       <c r="I11">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J11">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.706050333333333</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N11">
-        <v>5.118151</v>
+        <v>0.139771</v>
       </c>
       <c r="O11">
-        <v>0.157671546464246</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P11">
-        <v>0.1576715464642459</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q11">
-        <v>14.15989361710333</v>
+        <v>0.3866909145033334</v>
       </c>
       <c r="R11">
-        <v>127.43904255393</v>
+        <v>3.480218230530001</v>
       </c>
       <c r="S11">
-        <v>0.06702382086474629</v>
+        <v>0.002218611435548922</v>
       </c>
       <c r="T11">
-        <v>0.06702382086474627</v>
+        <v>0.002218611435548922</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,117 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>8.299809999999999</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H12">
-        <v>24.89943</v>
+        <v>0.766678</v>
       </c>
       <c r="I12">
-        <v>0.4250850731647057</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J12">
-        <v>0.4250850731647057</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04659033333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N12">
-        <v>0.139771</v>
+        <v>19.375401</v>
       </c>
       <c r="O12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q12">
-        <v>0.3866909145033333</v>
+        <v>1.650521520875333</v>
       </c>
       <c r="R12">
-        <v>3.48021823053</v>
+        <v>14.854693687878</v>
       </c>
       <c r="S12">
-        <v>0.001830345854603831</v>
+        <v>0.00946974905147932</v>
       </c>
       <c r="T12">
-        <v>0.001830345854603831</v>
+        <v>0.00946974905147932</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>8.299809999999999</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H13">
-        <v>24.89943</v>
+        <v>0.766678</v>
       </c>
       <c r="I13">
-        <v>0.4250850731647057</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J13">
-        <v>0.4250850731647057</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.002428</v>
+        <v>2.450022</v>
       </c>
       <c r="N13">
-        <v>0.007284000000000001</v>
+        <v>7.350066</v>
       </c>
       <c r="O13">
-        <v>0.0002243934468610964</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P13">
-        <v>0.0002243934468610964</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q13">
-        <v>0.02015193868</v>
+        <v>0.626125988972</v>
       </c>
       <c r="R13">
-        <v>0.18136744812</v>
+        <v>5.635133900747999</v>
       </c>
       <c r="S13">
-        <v>9.538630477662967E-05</v>
+        <v>0.003592353032167458</v>
       </c>
       <c r="T13">
-        <v>9.538630477662966E-05</v>
+        <v>0.003592353032167458</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,46 +1287,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H14">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I14">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J14">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.588395333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N14">
-        <v>19.765186</v>
+        <v>0.080383</v>
       </c>
       <c r="O14">
-        <v>0.6088932199877385</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P14">
-        <v>0.6088932199877384</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q14">
-        <v>3.250167420654</v>
+        <v>0.006847541963777777</v>
       </c>
       <c r="R14">
-        <v>29.251506785886</v>
+        <v>0.06162787767399999</v>
       </c>
       <c r="S14">
-        <v>0.01538420025410552</v>
+        <v>3.928728174477845E-05</v>
       </c>
       <c r="T14">
-        <v>0.01538420025410552</v>
+        <v>3.928728174477845E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H15">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I15">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J15">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.450022</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N15">
-        <v>7.350066</v>
+        <v>1.411378</v>
       </c>
       <c r="O15">
-        <v>0.2264286991208885</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P15">
-        <v>0.2264286991208884</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q15">
-        <v>1.208637502974</v>
+        <v>0.1202302735871111</v>
       </c>
       <c r="R15">
-        <v>10.877737526766</v>
+        <v>1.082072462284</v>
       </c>
       <c r="S15">
-        <v>0.005720911871251418</v>
+        <v>0.0006898125864222773</v>
       </c>
       <c r="T15">
-        <v>0.005720911871251417</v>
+        <v>0.0006898125864222774</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H16">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I16">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J16">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02679433333333334</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N16">
-        <v>0.08038300000000001</v>
+        <v>0.139771</v>
       </c>
       <c r="O16">
-        <v>0.002476306759889555</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P16">
-        <v>0.002476306759889555</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q16">
-        <v>0.013218100137</v>
+        <v>0.01190659452644444</v>
       </c>
       <c r="R16">
-        <v>0.118962901233</v>
+        <v>0.107159350738</v>
       </c>
       <c r="S16">
-        <v>6.256597681528339E-05</v>
+        <v>6.831323360349116E-05</v>
       </c>
       <c r="T16">
-        <v>6.256597681528339E-05</v>
+        <v>6.831323360349116E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.493317</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H17">
-        <v>1.479951</v>
+        <v>4.177937</v>
       </c>
       <c r="I17">
-        <v>0.02526584259620318</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J17">
-        <v>0.02526584259620318</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.706050333333333</v>
+        <v>6.458467</v>
       </c>
       <c r="N17">
-        <v>5.118151</v>
+        <v>19.375401</v>
       </c>
       <c r="O17">
-        <v>0.157671546464246</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P17">
-        <v>0.1576715464642459</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q17">
-        <v>0.8416236322890001</v>
+        <v>8.994356080859667</v>
       </c>
       <c r="R17">
-        <v>7.574612690601001</v>
+        <v>80.949204727737</v>
       </c>
       <c r="S17">
-        <v>0.003983704474865575</v>
+        <v>0.05160447403328432</v>
       </c>
       <c r="T17">
-        <v>0.003983704474865574</v>
+        <v>0.05160447403328432</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,87 +1526,87 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.493317</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H18">
-        <v>1.479951</v>
+        <v>4.177937</v>
       </c>
       <c r="I18">
-        <v>0.02526584259620318</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J18">
-        <v>0.02526584259620318</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04659033333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N18">
-        <v>0.139771</v>
+        <v>7.350066</v>
       </c>
       <c r="O18">
-        <v>0.004305834220376484</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P18">
-        <v>0.004305834220376484</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q18">
-        <v>0.022983803469</v>
+        <v>3.412012521538</v>
       </c>
       <c r="R18">
-        <v>0.206854231221</v>
+        <v>30.708112693842</v>
       </c>
       <c r="S18">
-        <v>0.0001087905296573775</v>
+        <v>0.01957617754801183</v>
       </c>
       <c r="T18">
-        <v>0.0001087905296573775</v>
+        <v>0.01957617754801183</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.493317</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H19">
-        <v>1.479951</v>
+        <v>4.177937</v>
       </c>
       <c r="I19">
-        <v>0.02526584259620318</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J19">
-        <v>0.02526584259620318</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.002428</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N19">
-        <v>0.007284000000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O19">
-        <v>0.0002243934468610964</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P19">
-        <v>0.0002243934468610964</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q19">
-        <v>0.001197773676</v>
+        <v>0.03731501220788889</v>
       </c>
       <c r="R19">
-        <v>0.010779963084</v>
+        <v>0.335835109871</v>
       </c>
       <c r="S19">
-        <v>5.669489508011945E-06</v>
+        <v>0.0002140922108511454</v>
       </c>
       <c r="T19">
-        <v>5.669489508011945E-06</v>
+        <v>0.0002140922108511454</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H20">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I20">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J20">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.588395333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N20">
-        <v>19.765186</v>
+        <v>1.411378</v>
       </c>
       <c r="O20">
-        <v>0.6088932199877385</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P20">
-        <v>0.6088932199877384</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q20">
-        <v>13.45430705489733</v>
+        <v>0.6551831519095556</v>
       </c>
       <c r="R20">
-        <v>121.088763494076</v>
+        <v>5.896648367186</v>
       </c>
       <c r="S20">
-        <v>0.06368402830495293</v>
+        <v>0.003759066424078075</v>
       </c>
       <c r="T20">
-        <v>0.06368402830495291</v>
+        <v>0.003759066424078075</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H21">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I21">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J21">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>2.450022</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N21">
-        <v>7.350066</v>
+        <v>0.139771</v>
       </c>
       <c r="O21">
-        <v>0.2264286991208885</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P21">
-        <v>0.2264286991208884</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q21">
-        <v>5.003243826683999</v>
+        <v>0.06488382582522223</v>
       </c>
       <c r="R21">
-        <v>45.02919444015599</v>
+        <v>0.5839544324270001</v>
       </c>
       <c r="S21">
-        <v>0.02368213540653107</v>
+        <v>0.0003722663051002756</v>
       </c>
       <c r="T21">
-        <v>0.02368213540653107</v>
+        <v>0.0003722663051002756</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.042122</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H22">
-        <v>6.126365999999999</v>
+        <v>3.419914</v>
       </c>
       <c r="I22">
-        <v>0.1045898134753994</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J22">
-        <v>0.1045898134753994</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.02679433333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N22">
-        <v>0.08038300000000001</v>
+        <v>19.375401</v>
       </c>
       <c r="O22">
-        <v>0.002476306759889555</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P22">
-        <v>0.002476306759889555</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q22">
-        <v>0.05471729757533333</v>
+        <v>7.362467237279334</v>
       </c>
       <c r="R22">
-        <v>0.492455678178</v>
+        <v>66.26220513551401</v>
       </c>
       <c r="S22">
-        <v>0.0002589964621247192</v>
+        <v>0.04224162863371696</v>
       </c>
       <c r="T22">
-        <v>0.0002589964621247193</v>
+        <v>0.04224162863371696</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.042122</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H23">
-        <v>6.126365999999999</v>
+        <v>3.419914</v>
       </c>
       <c r="I23">
-        <v>0.1045898134753994</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J23">
-        <v>0.1045898134753994</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.706050333333333</v>
+        <v>2.450022</v>
       </c>
       <c r="N23">
-        <v>5.118151</v>
+        <v>7.350066</v>
       </c>
       <c r="O23">
-        <v>0.157671546464246</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P23">
-        <v>0.1576715464642459</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q23">
-        <v>3.483962918807333</v>
+        <v>2.792954846036</v>
       </c>
       <c r="R23">
-        <v>31.355666269266</v>
+        <v>25.136593614324</v>
       </c>
       <c r="S23">
-        <v>0.01649083763507326</v>
+        <v>0.01602437845829924</v>
       </c>
       <c r="T23">
-        <v>0.01649083763507326</v>
+        <v>0.01602437845829924</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.042122</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H24">
-        <v>6.126365999999999</v>
+        <v>3.419914</v>
       </c>
       <c r="I24">
-        <v>0.1045898134753994</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J24">
-        <v>0.1045898134753994</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,43 +1925,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.04659033333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N24">
-        <v>0.139771</v>
+        <v>0.080383</v>
       </c>
       <c r="O24">
-        <v>0.004305834220376484</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P24">
-        <v>0.004305834220376484</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q24">
-        <v>0.09514314468733333</v>
+        <v>0.03054477189577778</v>
       </c>
       <c r="R24">
-        <v>0.8562883021859999</v>
+        <v>0.274902947062</v>
       </c>
       <c r="S24">
-        <v>0.0004503463979651684</v>
+        <v>0.0001752484417981373</v>
       </c>
       <c r="T24">
-        <v>0.0004503463979651685</v>
+        <v>0.0001752484417981373</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.042122</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H25">
-        <v>6.126365999999999</v>
+        <v>3.419914</v>
       </c>
       <c r="I25">
-        <v>0.1045898134753994</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J25">
-        <v>0.1045898134753994</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.002428</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N25">
-        <v>0.007284000000000001</v>
+        <v>1.411378</v>
       </c>
       <c r="O25">
-        <v>0.0002243934468610964</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P25">
-        <v>0.0002243934468610964</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q25">
-        <v>0.004958272215999999</v>
+        <v>0.5363101534991112</v>
       </c>
       <c r="R25">
-        <v>0.044624449944</v>
+        <v>4.826791381492001</v>
       </c>
       <c r="S25">
-        <v>2.346926875230403E-05</v>
+        <v>0.003077041106803321</v>
       </c>
       <c r="T25">
-        <v>2.346926875230403E-05</v>
+        <v>0.003077041106803321</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.9279860000000001</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H26">
-        <v>2.783958</v>
+        <v>3.419914</v>
       </c>
       <c r="I26">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J26">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>6.588395333333334</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N26">
-        <v>19.765186</v>
+        <v>0.139771</v>
       </c>
       <c r="O26">
-        <v>0.6088932199877385</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P26">
-        <v>0.6088932199877384</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q26">
-        <v>6.113938631798668</v>
+        <v>0.05311164441044446</v>
       </c>
       <c r="R26">
-        <v>55.025447686188</v>
+        <v>0.4780047996940001</v>
       </c>
       <c r="S26">
-        <v>0.02893944959733065</v>
+        <v>0.000304724257101221</v>
       </c>
       <c r="T26">
-        <v>0.02893944959733064</v>
+        <v>0.000304724257101221</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,25 +2084,25 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.9279860000000001</v>
+        <v>0.248809</v>
       </c>
       <c r="H27">
-        <v>2.783958</v>
+        <v>0.746427</v>
       </c>
       <c r="I27">
-        <v>0.04752795506232343</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J27">
-        <v>0.04752795506232343</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.450022</v>
+        <v>6.458467</v>
       </c>
       <c r="N27">
-        <v>7.350066</v>
+        <v>19.375401</v>
       </c>
       <c r="O27">
-        <v>0.2264286991208885</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P27">
-        <v>0.2264286991208884</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q27">
-        <v>2.273586115692</v>
+        <v>1.606924715803</v>
       </c>
       <c r="R27">
-        <v>20.462275041228</v>
+        <v>14.462322442227</v>
       </c>
       <c r="S27">
-        <v>0.01076169303663794</v>
+        <v>0.009219615503834145</v>
       </c>
       <c r="T27">
-        <v>0.01076169303663794</v>
+        <v>0.009219615503834143</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.9279860000000001</v>
+        <v>0.248809</v>
       </c>
       <c r="H28">
-        <v>2.783958</v>
+        <v>0.746427</v>
       </c>
       <c r="I28">
-        <v>0.04752795506232343</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J28">
-        <v>0.04752795506232343</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.02679433333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N28">
-        <v>0.08038300000000001</v>
+        <v>7.350066</v>
       </c>
       <c r="O28">
-        <v>0.002476306759889555</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P28">
-        <v>0.002476306759889555</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q28">
-        <v>0.02486476621266667</v>
+        <v>0.609587523798</v>
       </c>
       <c r="R28">
-        <v>0.2237828959140001</v>
+        <v>5.486287714182</v>
       </c>
       <c r="S28">
-        <v>0.0001176937964045585</v>
+        <v>0.003497464772357704</v>
       </c>
       <c r="T28">
-        <v>0.0001176937964045585</v>
+        <v>0.003497464772357703</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.9279860000000001</v>
+        <v>0.248809</v>
       </c>
       <c r="H29">
-        <v>2.783958</v>
+        <v>0.746427</v>
       </c>
       <c r="I29">
-        <v>0.04752795506232343</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J29">
-        <v>0.04752795506232343</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>1.706050333333333</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N29">
-        <v>5.118151</v>
+        <v>0.080383</v>
       </c>
       <c r="O29">
-        <v>0.157671546464246</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P29">
-        <v>0.1576715464642459</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q29">
-        <v>1.583190824628667</v>
+        <v>0.006666671282333333</v>
       </c>
       <c r="R29">
-        <v>14.248717421658</v>
+        <v>0.06000004154099999</v>
       </c>
       <c r="S29">
-        <v>0.007493806174959722</v>
+        <v>3.824954916002513E-05</v>
       </c>
       <c r="T29">
-        <v>0.007493806174959722</v>
+        <v>3.824954916002513E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,87 +2270,87 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.9279860000000001</v>
+        <v>0.248809</v>
       </c>
       <c r="H30">
-        <v>2.783958</v>
+        <v>0.746427</v>
       </c>
       <c r="I30">
-        <v>0.04752795506232343</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J30">
-        <v>0.04752795506232343</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.04659033333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N30">
-        <v>0.139771</v>
+        <v>1.411378</v>
       </c>
       <c r="O30">
-        <v>0.004305834220376484</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P30">
-        <v>0.004305834220376484</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q30">
-        <v>0.04323517706866668</v>
+        <v>0.1170545162673333</v>
       </c>
       <c r="R30">
-        <v>0.3891165936180001</v>
+        <v>1.053490646406</v>
       </c>
       <c r="S30">
-        <v>0.000204647495331868</v>
+        <v>0.0006715919061788929</v>
       </c>
       <c r="T30">
-        <v>0.000204647495331868</v>
+        <v>0.0006715919061788929</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.9279860000000001</v>
+        <v>0.248809</v>
       </c>
       <c r="H31">
-        <v>2.783958</v>
+        <v>0.746427</v>
       </c>
       <c r="I31">
-        <v>0.04752795506232343</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J31">
-        <v>0.04752795506232343</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,400 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.002428</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N31">
-        <v>0.007284000000000001</v>
+        <v>0.139771</v>
       </c>
       <c r="O31">
-        <v>0.0002243934468610964</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P31">
-        <v>0.0002243934468610964</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q31">
-        <v>0.002253150008</v>
+        <v>0.01159209424633333</v>
       </c>
       <c r="R31">
-        <v>0.020278350072</v>
+        <v>0.104328848217</v>
       </c>
       <c r="S31">
-        <v>1.066496165869405E-05</v>
+        <v>6.650881076404057E-05</v>
       </c>
       <c r="T31">
-        <v>1.066496165869405E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.831529</v>
-      </c>
-      <c r="I32">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J32">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>6.588395333333334</v>
-      </c>
-      <c r="N32">
-        <v>19.765186</v>
-      </c>
-      <c r="O32">
-        <v>0.6088932199877385</v>
-      </c>
-      <c r="P32">
-        <v>0.6088932199877384</v>
-      </c>
-      <c r="Q32">
-        <v>1.826147261043778</v>
-      </c>
-      <c r="R32">
-        <v>16.435325349394</v>
-      </c>
-      <c r="S32">
-        <v>0.008643805540248364</v>
-      </c>
-      <c r="T32">
-        <v>0.008643805540248363</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.831529</v>
-      </c>
-      <c r="I33">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J33">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.450022</v>
-      </c>
-      <c r="N33">
-        <v>7.350066</v>
-      </c>
-      <c r="O33">
-        <v>0.2264286991208885</v>
-      </c>
-      <c r="P33">
-        <v>0.2264286991208884</v>
-      </c>
-      <c r="Q33">
-        <v>0.6790881145459999</v>
-      </c>
-      <c r="R33">
-        <v>6.111793030914</v>
-      </c>
-      <c r="S33">
-        <v>0.0032143659671096</v>
-      </c>
-      <c r="T33">
-        <v>0.0032143659671096</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.831529</v>
-      </c>
-      <c r="I34">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J34">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.02679433333333334</v>
-      </c>
-      <c r="N34">
-        <v>0.08038300000000001</v>
-      </c>
-      <c r="O34">
-        <v>0.002476306759889555</v>
-      </c>
-      <c r="P34">
-        <v>0.002476306759889555</v>
-      </c>
-      <c r="Q34">
-        <v>0.007426755067444444</v>
-      </c>
-      <c r="R34">
-        <v>0.066840795607</v>
-      </c>
-      <c r="S34">
-        <v>3.515347747002149E-05</v>
-      </c>
-      <c r="T34">
-        <v>3.515347747002149E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.831529</v>
-      </c>
-      <c r="I35">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J35">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.706050333333333</v>
-      </c>
-      <c r="N35">
-        <v>5.118151</v>
-      </c>
-      <c r="O35">
-        <v>0.157671546464246</v>
-      </c>
-      <c r="P35">
-        <v>0.1576715464642459</v>
-      </c>
-      <c r="Q35">
-        <v>0.4728767758754444</v>
-      </c>
-      <c r="R35">
-        <v>4.255890982878999</v>
-      </c>
-      <c r="S35">
-        <v>0.002238294239660973</v>
-      </c>
-      <c r="T35">
-        <v>0.002238294239660973</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.831529</v>
-      </c>
-      <c r="I36">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J36">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.04659033333333334</v>
-      </c>
-      <c r="N36">
-        <v>0.139771</v>
-      </c>
-      <c r="O36">
-        <v>0.004305834220376484</v>
-      </c>
-      <c r="P36">
-        <v>0.004305834220376484</v>
-      </c>
-      <c r="Q36">
-        <v>0.01291373776211111</v>
-      </c>
-      <c r="R36">
-        <v>0.116223639859</v>
-      </c>
-      <c r="S36">
-        <v>6.112532126771051E-05</v>
-      </c>
-      <c r="T36">
-        <v>6.112532126771051E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.831529</v>
-      </c>
-      <c r="I37">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J37">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.002428</v>
-      </c>
-      <c r="N37">
-        <v>0.007284000000000001</v>
-      </c>
-      <c r="O37">
-        <v>0.0002243934468610964</v>
-      </c>
-      <c r="P37">
-        <v>0.0002243934468610964</v>
-      </c>
-      <c r="Q37">
-        <v>0.0006729841373333332</v>
-      </c>
-      <c r="R37">
-        <v>0.006056857236</v>
-      </c>
-      <c r="S37">
-        <v>3.185473668457716E-06</v>
-      </c>
-      <c r="T37">
-        <v>3.185473668457715E-06</v>
+        <v>6.650881076404056E-05</v>
       </c>
     </row>
   </sheetData>
